--- a/052c doc/woC_model_version/feature各层稀疏度.xlsx
+++ b/052c doc/woC_model_version/feature各层稀疏度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\woC_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0DC81-A252-47D9-8DB0-E6C849C9FDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1672CAC-239F-4FC8-AB3B-BB8E53F6085F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="1884" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,6 +96,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>woC feature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各层稀疏度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1205,7 +1234,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
